--- a/Excel/KAMUS MSIC.xlsx
+++ b/Excel/KAMUS MSIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Downloads\BIZCODE1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C842E834-0F6B-4538-9967-040CF1FF2117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8945DF-E53A-4BE4-8F6A-651A79FF7DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{365D7103-A22F-43FB-9A0A-4627EBF1DD56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{365D7103-A22F-43FB-9A0A-4627EBF1DD56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="279">
   <si>
     <t>Food Truck</t>
   </si>
@@ -68,44 +68,19 @@
     <t>Penjagaan Post Natal</t>
   </si>
   <si>
-    <t>Pusat Kecantikan Rawatan Aesthetic (cth: laser, suntikan vitamin C)</t>
-  </si>
-  <si>
     <t>Dandanan rambut dan penjagaan kecantikan lain.</t>
   </si>
   <si>
-    <t>Perkhidmatan penyediaan kolam pancing untuk sukan / rekreasi</t>
-  </si>
-  <si>
     <t>Aktiviti sukan lain t.t.t.l</t>
   </si>
   <si>
-    <t>Pusat Jagaan Kanak-Kanak - berusia 4 tahun ke atas (Harian / Berkediaman)</t>
-  </si>
-  <si>
     <t>Aktiviti penjagaan harian kanak-kanak</t>
   </si>
   <si>
-    <t xml:space="preserve">Pusat Jagaan OKU  (Harian / Berkediaman ) </t>
-  </si>
-  <si>
     <t>Aktiviti rumah penjagaan untuk orang tua dan orang kurang upaya</t>
   </si>
   <si>
-    <t xml:space="preserve">Pusat Jagaan Warga Emas 
-( Harian / Berkediaman)
-</t>
-  </si>
-  <si>
-    <t>Pusat Jagaan Wanita
- ( Harian/ Berkediaman) - termasuk operasi perlindungan wanita</t>
-  </si>
-  <si>
     <t>Perkhidmatan rumah kebajikan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pusat Jagaan Pelbagai 
-( Harian / Berkediaman) </t>
   </si>
   <si>
     <t>Aktiviti rumah penjagaan lain t.t.t.l.</t>
@@ -207,12 +182,6 @@
     <t>Tempat minuman lain t.t.t.l.</t>
   </si>
   <si>
-    <t>Menyediakan perkhidmatan minuman yang tidak spesifik jenisnya. Kebiasaanya, ia turut menjual makanan lain yang telah tersedia seperti nasi lemak, kuih, roti dan sebagainya. Ini termasuk kiosk-kiosk jualan air yang berada di pusat-pusat membeli–belah dan tempat-tempat tertentu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengajar kursus di atas talian (memasak, menjahit, melukis) </t>
-  </si>
-  <si>
     <t>Perkhidmatan Jurugambar</t>
   </si>
   <si>
@@ -222,9 +191,6 @@
     <t>Pencucian dan cucian kering, menggosok</t>
   </si>
   <si>
-    <t>Sewa kenderaan tanpa pemandu / pemilik</t>
-  </si>
-  <si>
     <t>Penyewaan dan pemajakan operasi kereta penumpang (tanpa pemandu)</t>
   </si>
   <si>
@@ -246,9 +212,6 @@
     <t>Pasar raya</t>
   </si>
   <si>
-    <t>Stor layan diri yang agak besar. Troli dan bakul disediakan. Contoh Speedmart</t>
-  </si>
-  <si>
     <t>Pasar mini</t>
   </si>
   <si>
@@ -279,38 +242,643 @@
     <t>Pembuatan roti, kek dan produk bakeri lain(3)</t>
   </si>
   <si>
+    <t>Termasuk: 
+(a) penyediaan penginapan di tapak perkhemahan, taman treler, kem rekreasi dan kem memancing dan memburu untuk pelawat yang menginap untuk tempoh masa yang singkat 
+(b) penyediaan tapak dan kemudahan untuk kenderaan rekreasi</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Aktiviti Profesional, Saintifik Dan Teknikal</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Aktiviti Isi Rumah Sebagai Majikan; Aktiviti Mengeluarkan Barangan Dan Perkhidmatan Yang Tidak Dapat Dibezakan Oleh Isi Rumah Untuk Kegunaan Sendiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>Pembuatan</t>
+  </si>
+  <si>
+    <t>Aktiviti Pentadbiran Dan Khidmat Sokongan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jual beli barang terpakai </t>
+  </si>
+  <si>
+    <t>Lazimnya beroperasi 24 sehari selama tujuh hari seminggu seperti 7-Elevan. Convenience store.</t>
+  </si>
+  <si>
+    <t>Perkhidmatan kesihatan kemanusiaan lain t.t.t.l.</t>
+  </si>
+  <si>
     <r>
-      <t>(2)</t>
+      <t>Jualan runcit bahan api kenderaan di kedai khusus</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Termasuk: 
-(a) pengeluaran fotografi komersial dan konsumer seperti fotografi potret untuk pasport, sekolah, perkahwinan dll; fotografi untuk tujuan komersial, penerbitan, fesyen, hartanah, pengiklanan atau pelancongan; fotografi dari udara; rakaman video untuk majlis seperti perkahwinan, mesyuarat dll. 
-(b) memproses filem seperti pencucian, percetakan dan pembesaran dari negatif yang diambil oleh pelanggan atau cine-films; pencucian filem dan makmal percetakan foto; kedai gambar satu jam (tidak termasuk kedai menjual kamera); pemasangan slaid, penyalinan dan pemulihan atau memperkemaskan semula transparensi berkaitan dengan gambar 
-(c) aktiviti jurugambar wartawan termasuk jurugambar wartawan bebas 
-(d) dokumen mikrofilem</t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
+    <t>Hotel Apartmen</t>
+  </si>
+  <si>
+    <t>Pendidikan lain t.t.t.l.</t>
+  </si>
+  <si>
+    <t>Aktiviti fotografi</t>
+  </si>
+  <si>
+    <t>Tapak perkhemahan, taman kenderaan rekreasi dan taman treler</t>
+  </si>
+  <si>
+    <t>Aktiviti isi rumah sebagai majikan bagi personel domestik</t>
+  </si>
+  <si>
+    <t>drop ship, dropshipper</t>
+  </si>
+  <si>
+    <t>foodtruck, food truck</t>
+  </si>
+  <si>
+    <t>Kedai Vape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedai Vape </t>
+  </si>
+  <si>
+    <t>Perniagaan Jual Barang Lama / Antik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostwriter </t>
+  </si>
+  <si>
+    <t>Perkhidmatan Copywriting</t>
+  </si>
+  <si>
+    <t>Perkhidmatan Mengurus Media Sosial</t>
+  </si>
+  <si>
+    <t>Servis Penapis Air</t>
+  </si>
+  <si>
+    <t>Bekam dan perubatan Islam</t>
+  </si>
+  <si>
+    <t>Perkhidmatan menjaga haiwan peliharaan</t>
+  </si>
+  <si>
+    <t>Perkhidmatan Tukang Urut</t>
+  </si>
+  <si>
+    <t>Agen affiliate</t>
+  </si>
+  <si>
+    <t>Menulis dan menjual e-book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khidmat pindah rumah/pejabat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkhidmatan maskot </t>
+  </si>
+  <si>
+    <t>Makeup Artist</t>
+  </si>
+  <si>
+    <t>Baik Pulih Kasut Dan Barangan  Kulit</t>
+  </si>
+  <si>
+    <t>Pembersihan Pantai/Sungai/Terusan/Empangan/Tasik</t>
+  </si>
+  <si>
+    <t>Penyelenggaraan Misil/ Roket Dan Sub Sistem, Pelancar</t>
+  </si>
+  <si>
+    <t>Kedai sewa pakaian beragam dan aksesori solekan</t>
+  </si>
+  <si>
+    <t>Ticketing service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penjualan seni lukisan </t>
+  </si>
+  <si>
+    <t>Perkhidmatan Sukan Ekstrem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photobooth </t>
+  </si>
+  <si>
+    <t>3D Printing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penjualan dan pemasangan charger EV </t>
+  </si>
+  <si>
+    <t>Pembuatan barangan tembikar</t>
+  </si>
+  <si>
+    <t>Perkhidmatan latihan pembuatan tembikar</t>
+  </si>
+  <si>
+    <t>Online Nutritionist</t>
+  </si>
+  <si>
+    <t>Online Doctor</t>
+  </si>
+  <si>
+    <t>perkhidmatan pembayaran digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21005
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86201
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jualan borong tembakau, cerut, rokok </t>
+  </si>
+  <si>
+    <t>Kod yang khusus belum diwujudkan lagi. Kod yang dicadangkan adalah berdasarkan kod MSIC 2008 ver. 1.0 sedia ada.</t>
+  </si>
+  <si>
+    <t>Jualan runcit barang antik</t>
+  </si>
+  <si>
+    <t>Aktiviti pengeluaran wayang gambar, video dan program 
+televisyen</t>
+  </si>
+  <si>
+    <t>Jualan runcit cenderahati, kraftangan dan barang keagamaan</t>
+  </si>
+  <si>
+    <t>Pembaikan dan penyenggaraan kelengkapan isi rumah</t>
+  </si>
+  <si>
+    <t>Perundingan komputer
+Termasuk:
+(a) merancang dan mereka bentuk sistem komputer dengan mengintegrasikan teknologi perkakasan, perisian komputer dan komunikasi
+(b) mereka bentuk atau perundingan perisian sebagai sebahagian daripada penyelesaian sistem komputer yang lengkap kepada penguna</t>
+  </si>
+  <si>
+    <t>Perkhidmatan jagaan haiwan</t>
+  </si>
+  <si>
+    <t>Aktiviti sauna, mandian stim, salon mengurut</t>
+  </si>
+  <si>
+    <t>Jualan runcit sebarang jenis produk melalui internet</t>
+  </si>
+  <si>
+    <t>Penerbitan buku, brosur dan penerbitan lain</t>
+  </si>
+  <si>
+    <t>Mengurus, mempromosi dan/atau mengendali acara</t>
+  </si>
+  <si>
+    <t>Aktiviti pengaturcaraan komputer, termasuk:
+(a) aktiviti menulis, mengubah, menguji dan menyokong perisian untuk memenuhi keperluan pelanggan tertentu (tempahan pengaturcaraan komputer)
+(b) produksi perisian tidak berkaitan dengan penerbitan
+(c) penulisan perisian bagi konsol permainan video
+(d) mereka bentuk dan mengaturcara laman web</t>
+  </si>
+  <si>
+    <t>Menaip, word processing atau desktop publishing, termasuk:
+penulisan surat atau resume, usul, tugasan dan laporan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewaan peralatan riadah sebagai kelengkapan untuk kemudahan rekreasi
+</t>
+  </si>
+  <si>
+    <t>Dandanan rambut dan penjagaan kecantikan lain</t>
+  </si>
+  <si>
+    <t>Pemasangan pengumpul tenaga solar bukan elektrik</t>
+  </si>
+  <si>
+    <t>Pembaikan kelengkapan kasut dan barangan kulit, termasuk:
+membaiki kelengkapan kasut dan barangan kulit seperti but, kasut, memasang tumit kasut, beg dan seumpamanya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembuatan penyediaan diagnosis perubatan
+</t>
+  </si>
+  <si>
+    <t>Jualan runcit di kedai khusus yang menjual barang farmaseutikal, perubatan dan ortopedik</t>
+  </si>
+  <si>
+    <t>Makmal perubatan, termasuk:
+makmal x-ray dan pusat diagnostik imej lain, makmal analisis darah, makmal patologi.</t>
+  </si>
+  <si>
+    <t>Aktiviti pemulihan dan lain-lain perkhidmatan pengurusan sisa, termasuk:
+pembersihan bangunan dan tapak, tanah, air permukaan atau air bawah tanah yang tercemar</t>
+  </si>
+  <si>
+    <t>Pemulihan bahan t.t.t.l.</t>
+  </si>
+  <si>
+    <t>Jualan runcit pakaian, artikel bagi bulu binatang dan aksesori pakaian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembuatan pesawat dan kapal terbang dan jentera berkaitan.
+</t>
+  </si>
+  <si>
+    <t>Penyewaan dan pemajakan operasi, tanpa operator, untuk mesin dan kelengkapan lain yang biasanya digunakan sebagai barang modal oleh industri.</t>
+  </si>
+  <si>
+    <t>Jualan runcit konsol permainan video dan sofwer bukan ditempah khas</t>
+  </si>
+  <si>
+    <t>Perkhidmatan penerbit teater, penyanyi kumpulan pancaragam dan hiburan orkestra, termasuk: artis perseorangan dan sarkas.</t>
+  </si>
+  <si>
+    <t>Penyewaan dan pemajakan barang kemas, peralatan muzik, hiasan latar dan kostum</t>
+  </si>
+  <si>
+    <t>Pendidikan lain t.t.t.l.
+Termasuk:
+(d) pengajaran kemahiran bahasa dan perbualan, bacaan pantas dan juga latihan pengucapan awam</t>
+  </si>
+  <si>
+    <t>Aktiviti penterjemahan dan pentafsiran</t>
+  </si>
+  <si>
+    <t>Aktiviti penulis perseorangan, untuk semua subjek</t>
+  </si>
+  <si>
+    <t>Aktiviti pemahat, pelukis, kartunis, pengukir, penggores</t>
+  </si>
+  <si>
+    <t>Penganjuran dan operasi acara sukan dalam dan luar bangunan untuk profesional atau amatur oleh organisasi dengan kemudahan sukan sendiri</t>
+  </si>
+  <si>
+    <t>Aktiviti taman rekreasi dan pantai</t>
+  </si>
+  <si>
+    <t>Pembuatan pelbagai kelengkapan elektrik selain daripada motor, penjana dan transformer, bateri dan akumulator, wayar dan alatan pendawaian, kelengkapan pencahayaan atau perkakasan domestik</t>
+  </si>
+  <si>
+    <t>Pengumpulan bahan kitar semula</t>
+  </si>
+  <si>
+    <t>Pembuatan lain-lain bahan binaan dari tanah liat</t>
+  </si>
+  <si>
+    <t>Sewaan peralatan riadah sebagai kelengkapan untuk kemudahan rekreasi</t>
+  </si>
+  <si>
+    <t>Aktiviti sokongan kepada kewangan t.t.t.l.</t>
+  </si>
+  <si>
+    <t>Jualan runcit produk makanan lain t.t.t.l.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-dagang berasaskan NFT (Non-Fungible Token) </t>
+  </si>
+  <si>
+    <t>Penjualan Dron</t>
+  </si>
+  <si>
+    <t>Kelas Lesen Dron</t>
+  </si>
+  <si>
+    <t>Penyewaan Dron</t>
+  </si>
+  <si>
+    <t>Pembuatan Dron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perundingan komputer
+</t>
+  </si>
+  <si>
+    <t>termasuk:
+(a) penulisan fiksyen, penulisan teknikal, dll.
+(b) aktiviti penulis buku saintifik dan teknikal
+(c) aktiviti penulis perseorangan</t>
+  </si>
+  <si>
+    <t>Jualan runcit produk tembakau di kedai khusus</t>
+  </si>
+  <si>
+    <t>Aktiviti hartanah bagi harta milikan sendiri atau pajakan t.t.t.l.</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Aktiviti Hartanah</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Penghantaran muatan</t>
+  </si>
+  <si>
+    <t>Aktiviti penyediaan infrastruktur untuk hosting, perkhidmatan prosesan data dan aktiviti yang berkaitan</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Pembinaan</t>
+  </si>
+  <si>
+    <t>Bekalan Air; Pembentungan, Pengurusan Sisa Dan Aktiviti Pemulihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembaikan dan penyelenggaraan jentera dan kelengkapan industri
+</t>
+  </si>
+  <si>
+    <t>Termasuk:
+(k) pembaikan dan penyelenggaraan jentera perlombongan, pembinaan, minyak dan gas, makanan, minuman dan tembakau; jentera pemprosesan pakaian tekstil dan pengeluaran barang kulit; jentera membuat kertas, senjata api dan kelengkapan (termasuk pembaikan senapang untuk sukan dan rekreasi)</t>
+  </si>
+  <si>
+    <t>Aktiviti perkhidmatan sokongan perniagaan t.t.t.l.</t>
+  </si>
+  <si>
+    <t>termasuk:
+(a) penyediaan laporan setiap patah perkataan dan secara trengkas untuk prosiding perundangan secara langsung dan siaran mesyuarat dan persidangan secara langsung melalui televisyen
+(b) perkhidmatan pengekodan bar dan pencetakan kod bar
+(c) perkhidmatan organisasi pengumpulan dana berdasarkan kontrak atau yuran
+(d) penyisihan mel
+(e) perkhidmatan pemilikan semula
+(f) perkhidmatan kutipan syiling di parkir bermeter
+(g) akitiviti pelelong bebas
+(h) pengurusan program loyalti
+(i) runner - menyediakan perkhidmatan atau menjalankan kerja yang diarah untuk perniagaan seperti menghantar surat/bil/bayaran, dll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktiviti isi rumah sebagai majikan bagi personel domestik
+</t>
+  </si>
+  <si>
     <t>Termasuk: 
-(a) penyediaan penginapan di tapak perkhemahan, taman treler, kem rekreasi dan kem memancing dan memburu untuk pelawat yang menginap untuk tempoh masa yang singkat 
-(b) penyediaan tapak dan kemudahan untuk kenderaan rekreasi</t>
-  </si>
-  <si>
-    <t>Termasuk: Aktiviti isi rumah sebagai majikan personel domestik (cth. pembantu rumah, tukang masak, pelayan, valet, ketua pembantu rumah, tukang cuci, tukang kebun, penjaga pintu, pembantu kandang kuda, pemandu, penjaga, pengasuh, penjaga budak, tutor, setiausaha, tukang bersih rumah, individu yang menyediakan perkhidmatan dalam pantang, pemotong rumput)</t>
-  </si>
-  <si>
-    <t>Termasuk: 
-(a) pembuatan roti dan roti gulung
-(b) pembuatan pastri segar, pai, tart, pengeluaran makanan pencuci mulut yang berasaskan telur (cth. kastard telur), dll. 
-(c) pembuatan makanan pastri yang diawet, dll.
-(d) pembuatan produk bakeri kering dan bakeri lain t.t.t.l.</t>
+Aktiviti isi rumah sebagai majikan personel domestik (cth. pembantu rumah, tukang masak, pelayan, valet, ketua pembantu rumah, tukang cuci, tukang kebun, penjaga pintu, pembantu kandang kuda, pemandu, penjaga, pengasuh, penjaga budak, tutor, setiausaha, tukang bersih rumah, individu yang menyediakan perkhidmatan dalam pantang, pemotong rumput)</t>
+  </si>
+  <si>
+    <t>Khidmat penempahan dan aktiviti berkaitan</t>
+  </si>
+  <si>
+    <t>Termasuk:
+(d) aktiviti agensi penjualan tiket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aktiviti fotografi
+</t>
+  </si>
+  <si>
+    <t>Termasuk:
+(a) pengeluaran fotografi komersial dan konsumer seperti fotografi potret untuk pasport, sekolah, perkahwinan dll; fotografi untuk tujuan komersial, penerbitan, fesyen, hartanah, pengiklanan atau pelancongan; fotografi dari udara; rakaman video untuk majlis seperti perkahwinan, mesyuarat dll.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percetakan
+</t>
+  </si>
+  <si>
+    <t>Termasuk:
+(a) percetakan atau percetakan semula surat khabar, majalah dan penerbitan berkala lain, buku dan risalah, muzik dan manuskrip muzik, peta, atlas, poster, katalog pengiklanan, prospektus dan cetakan pengiklanan lain, setem pos, setem pencukaian, dokumen penerbitan, cek dan kertas jaminan lain, kad pintar, diari, kalendar, borang perniagaan dan bahan bercetak komersil lain; alat tulis peribadi dan bahan bercetak lain melalui percetakan secara letterpress, oggset, offset, photogravure, fleksografi dan mesin percetakan lain, mesin pendua, pencetak komputer, mesin pencetak timbul, dll., termasuk percetakan segera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>Aktiviti Kewangan Dan Insurans/Takaful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusat Kecantikan Rawatan Aesthetic </t>
+  </si>
+  <si>
+    <t>Perkhidmatan penyediaan kolam pancing</t>
+  </si>
+  <si>
+    <t>untuk sukan / rekreasi</t>
+  </si>
+  <si>
+    <t>Pusat Jagaan Kanak-Kanak - berusia 4 tahun ke atas</t>
+  </si>
+  <si>
+    <t>Pusat Jagaan OKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusat Jagaan Warga Emas 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusat Jagaan Wanita
+</t>
+  </si>
+  <si>
+    <t>( Harian/ Berkediaman) - termasuk operasi perlindungan wanita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pusat Jagaan Pelbagai 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( Harian / Berkediaman) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengajar kursus di atas talian </t>
+  </si>
+  <si>
+    <t>Social Media Manager
+Kod yang khusus belum diwujudkan lagi. Kod yang dicadangkan adalah berdasarkan kod MSIC 2008 ver. 1.0 sedia ada.</t>
+  </si>
+  <si>
+    <t>Pengasuh Budak</t>
+  </si>
+  <si>
+    <t>AI Consultant</t>
+  </si>
+  <si>
+    <t>Termasuk:
+(a) merancang dan mereka bentuk sistem komputer dengan mengintegrasikan teknologi perkakasan, perisian komputer dan komunikasi
+(b) mereka bentuk atau perundingan perisian sebagai sebahagian daripada penyelesaian sistem komputer yang lengkap kepada penguna
+Consultancy by Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Sewa kenderaan tanpa pemandu</t>
+  </si>
+  <si>
+    <t>Kedai snek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkhidmatan platform e-dagang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkhidmatan skuter elektronik </t>
+  </si>
+  <si>
+    <t>Pakar pemakanan</t>
+  </si>
+  <si>
+    <t>Doktor</t>
+  </si>
+  <si>
+    <t>Perkhidmatan perubatan am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkhidmatan tufting secara diy </t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
+    <t>Perancang majlis</t>
+  </si>
+  <si>
+    <t>event planner</t>
+  </si>
+  <si>
+    <t>Personal Shopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Produk </t>
+  </si>
+  <si>
+    <t>Penulis content</t>
+  </si>
+  <si>
+    <t>Perkhidmatan menulis konten website atau media sosial
+Kod yang khusus belum diwujudkan lagi. Kod yang dicadangkan adalah berdasarkan kod MSIC 2008 ver. 1.0 sedia ada.</t>
+  </si>
+  <si>
+    <t>Penyediaan Door Gift</t>
+  </si>
+  <si>
+    <t>Cloud services</t>
+  </si>
+  <si>
+    <t>Servis pengawanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template creator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Hosting </t>
+  </si>
+  <si>
+    <t>termasuk:
+(membekalkan servis pendaftaran domain dan server) 
+web hosting, perkhidmatan streaming atau aplikasi hosting, membekalkan perkhidmatan aplikasi, kemudahan kerangka utama general time-share kepada pelanggan</t>
+  </si>
+  <si>
+    <t>MUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perniagaan Sistem Solar Fotovolta (Photovoltic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembuatan Marker/DNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penjualan Marker/DNA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servis Marker/DNA </t>
+  </si>
+  <si>
+    <t>Perkhidmatan kitar semula bahan</t>
+  </si>
+  <si>
+    <t>Perkhidmatan Badut</t>
+  </si>
+  <si>
+    <t>Cosplay</t>
+  </si>
+  <si>
+    <t>Sewa Pakaian</t>
+  </si>
+  <si>
+    <t>Pembangun Chatbot</t>
+  </si>
+  <si>
+    <t>Content Translator</t>
+  </si>
+  <si>
+    <t>Kelas Content Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkhidmatan teknologi kitar semula </t>
+  </si>
+  <si>
+    <t>Perkhidmatan menunggang kuda (tarikan pelancong)</t>
+  </si>
+  <si>
+    <t>Perkhidmatan Penulisan Akademik</t>
+  </si>
+  <si>
+    <t>Menjual barangan bayi</t>
+  </si>
+  <si>
+    <t>pakaian bayi</t>
+  </si>
+  <si>
+    <t>Water filtration service</t>
+  </si>
+  <si>
+    <t>Petsitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> termasuk:
+(a) peruntukan ruang untuk penempatan haiwan sahaja
+(b) operasi milikan kerajaan
+(c) pembahagian hartanah kepada lot, tanpa pembaikan tanah
+(d) operasi tapak kediaman rumah bergerak, petsitter</t>
+  </si>
+  <si>
+    <t>termasuk:
+(a) mengatur atau mengelola operasi pengangkutan melalui rel, jalan raya, laut atau udara
+(b) mengelola serahan berkumpulan atau individu
+(c) pengeluaran dan perolehan dokumen pengangkutan dan bil hantaran
+(d) aktiviti agen kastam
+(e) aktiviti agen pengangkutan muatan laut dan kargo udara, movers</t>
+  </si>
+  <si>
+    <t>Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perkhidmatan mesin rumput </t>
+  </si>
+  <si>
+    <t>Cleaner Rumah</t>
+  </si>
+  <si>
+    <t>Beam/Tryke</t>
+  </si>
+  <si>
+    <t>49225</t>
+  </si>
+  <si>
+    <t>Sewa kereta dengan pemandu</t>
   </si>
   <si>
     <r>
@@ -347,8 +915,15 @@
 (b) perkhidmatan trem bukit
 (c) pengangkutan penumpang dengan menggunakan tenaga manusia (beca) atau haiwan
 (d) perkhidmatan perantara lapangan terbang
-(e) perkhidmatan kereta kabel</t>
+(e) perkhidmatan kereta kabel
+grab driver, airasia driver, maxim driver</t>
     </r>
+  </si>
+  <si>
+    <t>ajar alquran, mengaji, kelas agama, kelas al-quran</t>
+  </si>
+  <si>
+    <t>Tiktoker</t>
   </si>
   <si>
     <r>
@@ -371,8 +946,41 @@
         <scheme val="minor"/>
       </rPr>
       <t>Termasuk: aktiviti untuk kesihatan kemanusiaan oleh jururawat, bidan, krioterapi, urutan
-tradisional, ayurveda dan perubatan alternatif lain atau ahli paramedik lain.</t>
+tradisional, ayurveda dan perubatan alternatif lain atau ahli paramedik lain.
+confinement center, mother and baby retreat</t>
     </r>
+  </si>
+  <si>
+    <t>(cth: laser, suntikan vitamin C) spa kecantikan, mani pedi, manicure pedicure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Harian / Berkediaman)  - Transit kanak-kanak, childcare centre, child daycare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Harian / Berkediaman)  - Home for special needs, Handicap centre, Disability care centre, autism care center, rumah orang buta, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Harian / Berkediaman) - Elder care center, rumah orang tua, old folks home, senior care 
+centre, retirement home</t>
+  </si>
+  <si>
+    <r>
+      <t>(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Termasuk: pangsapuri khidmat dan kondo, airbnb, penginapan jangka pendek</t>
+    </r>
+  </si>
+  <si>
+    <t>Menyediakan perkhidmatan minuman yang tidak spesifik jenisnya. Kebiasaanya, ia turut menjual makanan lain yang telah tersedia seperti nasi lemak, kuih, roti dan sebagainya. Ini termasuk kiosk-kiosk jualan air yang berada di pusat-pusat membeli–belah dan tempat-tempat tertentu. 
+- Kiosk makanan minuman</t>
   </si>
   <si>
     <r>
@@ -392,46 +1000,47 @@
 (c) kelas peragaan
 (d) pengajaran kemahiran bahasa dan perbualan, bacaan pantas dan juga latihan pengucapan awam</t>
     </r>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Aktiviti Profesional, Saintifik Dan Teknikal</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Aktiviti Isi Rumah Sebagai Majikan; Aktiviti Mengeluarkan Barangan Dan Perkhidmatan Yang Tidak Dapat Dibezakan Oleh Isi Rumah Untuk Kegunaan Sendiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C </t>
-  </si>
-  <si>
-    <t>Pembuatan</t>
-  </si>
-  <si>
-    <t>Aktiviti Pentadbiran Dan Khidmat Sokongan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jual beli barang terpakai </t>
-  </si>
-  <si>
-    <t>Lazimnya beroperasi 24 sehari selama tujuh hari seminggu seperti 7-Elevan. Convenience store.</t>
-  </si>
-  <si>
-    <t>Pengangkutan darat penumpang lain t.t.t.l.</t>
-  </si>
-  <si>
-    <t>Perkhidmatan kesihatan kemanusiaan lain t.t.t.l.</t>
-  </si>
-  <si>
     <r>
-      <t>Jualan runcit bahan api kenderaan di kedai khusus</t>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Online training, online courses, kelas bahasa, virtual courses, virtual training</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Termasuk: 
+(a) pengeluaran fotografi komersial dan konsumer seperti fotografi potret untuk pasport, sekolah, perkahwinan dll; fotografi untuk tujuan komersial, penerbitan, fesyen, hartanah, pengiklanan atau pelancongan; fotografi dari udara; rakaman video untuk majlis seperti perkahwinan, mesyuarat dll. 
+(b) memproses filem seperti pencucian, percetakan dan pembesaran dari negatif yang diambil oleh pelanggan atau cine-films; pencucian filem dan makmal percetakan foto; kedai gambar satu jam (tidak termasuk kedai menjual kamera); pemasangan slaid, penyalinan dan pemulihan atau memperkemaskan semula transparensi berkaitan dengan gambar 
+(c) aktiviti jurugambar wartawan termasuk jurugambar wartawan bebas 
+(d) dokumen mikrofilem</t>
     </r>
     <r>
       <rPr>
@@ -442,54 +1051,88 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Hotel Apartmen</t>
-  </si>
-  <si>
-    <t>Pendidikan lain t.t.t.l.</t>
-  </si>
-  <si>
-    <t>Aktiviti fotografi</t>
-  </si>
-  <si>
-    <t>Tapak perkhemahan, taman kenderaan rekreasi dan taman treler</t>
-  </si>
-  <si>
-    <t>Aktiviti isi rumah sebagai majikan bagi personel domestik</t>
-  </si>
-  <si>
-    <r>
-      <t>(3)</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <vertAlign val="superscript"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Termasuk: pangsapuri khidmat dan kondo, airbnb</t>
+      <t>- Photographer jurufoto, cameraman, videographer</t>
     </r>
   </si>
   <si>
-    <t>foodtruck</t>
-  </si>
-  <si>
-    <t>drop ship, dropshipper</t>
-  </si>
-  <si>
-    <t>ajar alquran</t>
+    <t>Self-service laundry</t>
+  </si>
+  <si>
+    <t>Sewa kereta, car rental, sewa lori, sewa van, sewa caravan, sewa rv, sewa motorhome, sewa campervan</t>
+  </si>
+  <si>
+    <t>cash converter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Termasuk: Aktiviti isi rumah sebagai majikan personel domestik (cth. pembantu rumah, tukang masak, pelayan, valet, ketua pembantu rumah, tukang cuci, tukang kebun, penjaga pintu, pembantu kandang kuda, pemandu, penjaga, pengasuh, penjaga budak, tutor, setiausaha, tukang bersih rumah, individu yang menyediakan perkhidmatan dalam pantang, pemotong rumput)
+- domestic helper, nanny, babysitter, </t>
+  </si>
+  <si>
+    <t>Termasuk: Aktiviti isi rumah sebagai majikan personel domestik (cth. pembantu rumah, tukang masak, pelayan, valet, ketua pembantu rumah, tukang cuci, tukang kebun, penjaga pintu, pembantu kandang kuda, pemandu, penjaga, pengasuh, penjaga budak, tutor, setiausaha, tukang bersih rumah, individu yang menyediakan perkhidmatan dalam pantang, pemotong rumput)
+- home tuition</t>
+  </si>
+  <si>
+    <t>grocery store</t>
+  </si>
+  <si>
+    <t>Stor layan diri yang agak besar. Troli dan bakul disediakan. Contoh Speedmart
+- supermarket</t>
+  </si>
+  <si>
+    <t>Termasuk: 
+(a) pembuatan roti dan roti gulung
+(b) pembuatan pastri segar, pai, tart, pengeluaran makanan pencuci mulut yang berasaskan telur (cth. kastard telur), dll. 
+(c) pembuatan makanan pastri yang diawet, dll.
+(d) pembuatan produk bakeri kering dan bakeri lain t.t.t.l.
+- kedai roti, kedai pastry, bakery</t>
+  </si>
+  <si>
+    <t>termasuk:
+jualan runcit cerut, rokok, e-cigarette
+Kod yang khusus belum diwujudkan lagi. Kod yang dicadangkan adalah berdasarkan kod MSIC 2008 ver. 1.0 sedia ada.</t>
+  </si>
+  <si>
+    <t>Kod yang khusus belum diwujudkan lagi. Kod yang dicadangkan adalah berdasarkan kod MSIC 2008 ver. 1.0 sedia ada.
+- e-cigarette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cth : 
+i- Sitly ( https://www.sitly.my )
+ii- Kiddocare ( https://kiddocare.my ) </t>
+  </si>
+  <si>
+    <t>Bundle, thrift, preloved</t>
+  </si>
+  <si>
+    <t>termasuk:
+aktiviti untuk kesihatan kemanusiaan oleh jururawat, bidan, krioterapi, urutan tradisional, ayurveda dan perubatan alternatif lain atau ahli paramedik lain.
+- acupuncture, cupping, candling, rawatan resdung, fish pedicure, fish spa, reflexology, homeopathy</t>
+  </si>
+  <si>
+    <t>Reviewer, paid review
+Kod yang khusus belum diwujudkan lagi. Kod yang dicadangkan adalah berdasarkan kod MSIC 2008 ver. 1.0 sedia ada.</t>
+  </si>
+  <si>
+    <t>Menjual Pakaian Terpakai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,8 +1172,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,7 +1211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -550,23 +1219,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -580,6 +1410,108 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,16 +1827,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0063AF0-CCEC-4776-94ED-0FF29526F714}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -914,673 +1846,2023 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>56105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>63990</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>47991</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
-        <v>49229</v>
+      <c r="B5" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>85493</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>86909</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="4">
+        <v>96020</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
-        <v>96020</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6">
+        <v>190</v>
+      </c>
+      <c r="B9" s="4">
         <v>93199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6">
+        <v>192</v>
+      </c>
+      <c r="B10" s="4">
         <v>88902</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6">
+        <v>193</v>
+      </c>
+      <c r="B11" s="4">
         <v>87300</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="4">
+        <v>87300</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="4">
+        <v>87902</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="4">
+        <v>87909</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6">
+        <v>55103</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="6">
+        <v>47300</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6">
+        <v>56309</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="109.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="6">
+        <v>85499</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="199.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6">
+        <v>74200</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6">
+        <v>96011</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="6">
+        <v>77101</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6">
+        <v>47749</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="5">
+        <v>55200</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="5">
+        <v>97000</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="5">
+        <v>97000</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6">
+        <v>47111</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="6">
+        <v>47112</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6">
+        <v>47113</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="6">
+        <v>47114</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6">
+        <v>47192</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6">
+        <v>47193</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5">
+        <v>10712</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="23">
+        <v>46327</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="23">
+        <v>47230</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="23">
+        <v>88902</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="23">
+        <v>47743</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="24">
+        <v>90004</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="24">
+        <v>90004</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="25">
+        <v>47749</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="24">
+        <v>59110</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="F40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="24">
+        <v>47735</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
-        <v>87300</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="24">
+        <v>95221</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="24">
+        <v>59110</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6">
-        <v>87902</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="24">
+        <v>86909</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="24">
+        <v>62021</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="6">
-        <v>87909</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="24">
+        <v>96094</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="24">
+        <v>68109</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="24">
+        <v>96091</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="24">
+        <v>47912</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="24">
+        <v>59110</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8">
-        <v>55103</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="B52" s="24">
+        <v>58110</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="24">
+        <v>82301</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="24">
+        <v>52291</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="24">
+        <v>62010</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="24">
+        <v>82192</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="24">
+        <v>63111</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="24">
+        <v>93293</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="24">
+        <v>96020</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="24">
+        <v>43223</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="24">
+        <v>95230</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="26">
+        <v>47721</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="26">
+        <v>86902</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="B65" s="27">
+        <v>39000</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="24">
+        <v>33120</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="24">
+        <v>82990</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="24">
+        <v>38309</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="24">
+        <v>47711</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="24">
+        <v>30300</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="24">
+        <v>77301</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="24">
+        <v>47412</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="8">
-        <v>47300</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="74" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="24">
+        <v>90001</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="24">
+        <v>77293</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="24">
+        <v>62021</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="24">
+        <v>74901</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="24">
+        <v>90004</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="28">
+        <v>79900</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="26">
+        <v>90003</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="27">
+        <v>93119</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="24">
+        <v>74200</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="24">
+        <v>93291</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="24">
+        <v>18110</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="24">
+        <v>47912</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="24">
+        <v>27900</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="24">
+        <v>38112</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="24">
+        <v>47735</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="24">
+        <v>23929</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="24">
+        <v>86909</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="8">
-        <v>56309</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
+    </row>
+    <row r="96" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7">
-        <v>85499</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="2" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="24">
+        <v>93293</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="174.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="7">
-        <v>74200</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="8">
-        <v>96011</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="8">
-        <v>77101</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="8">
-        <v>47749</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="7">
-        <v>55200</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="7">
-        <v>97000</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="7">
-        <v>97000</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="8">
-        <v>47111</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="8">
-        <v>47112</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="8">
-        <v>47113</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="8">
-        <v>47114</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="8">
-        <v>47192</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="8">
-        <v>47193</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="7">
-        <v>10712</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="28">
+        <v>47912</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="26">
+        <v>66199</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="26">
+        <v>47219</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1588,21 +3870,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7401d785-da5b-4d86-90d4-61060688b303" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6D615DAD0CEB749B819BD36971FBCED" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8dc060898b82381efe5900925c664f3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412" xmlns:ns3="7401d785-da5b-4d86-90d4-61060688b303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d71542a8dcdfc23862e93842e7c38c28" ns2:_="" ns3:_="">
-    <xsd:import namespace="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
-    <xsd:import namespace="7401d785-da5b-4d86-90d4-61060688b303"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E588CE95CF9584499B39070CC3A29848" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe4fdf15d597c960c808db39a87c5643">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4bf94dc-88b8-4deb-9b60-e79628638e83" xmlns:ns3="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bc15215275f513fea227201a0f67871" ns2:_="" ns3:_="">
+    <xsd:import namespace="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
+    <xsd:import namespace="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1611,19 +3891,14 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1631,7 +3906,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bf94dc-88b8-4deb-9b60-e79628638e83" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1644,67 +3919,51 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="467d846b-ff6e-4a1e-803c-25e1bec94132" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="467d846b-ff6e-4a1e-803c-25e1bec94132" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7401d785-da5b-4d86-90d4-61060688b303" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{400f4349-720f-42d6-970e-eb0d6ff241cb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1723,23 +3982,12 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b34d77af-d5b8-4968-afb0-32ca890e7b63}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7401d785-da5b-4d86-90d4-61060688b303">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1842,34 +4090,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4bf94dc-88b8-4deb-9b60-e79628638e83">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
-    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB823AF6-AD1A-442B-A5A0-9ABDC51F3D70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE86DF2-2578-4901-A010-B89B975235C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
-    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
+    <ds:schemaRef ds:uri="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
+    <ds:schemaRef ds:uri="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1881,9 +4128,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
+    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
+    <ds:schemaRef ds:uri="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
+    <ds:schemaRef ds:uri="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/KAMUS MSIC.xlsx
+++ b/Excel/KAMUS MSIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Downloads\BIZCODE1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8945DF-E53A-4BE4-8F6A-651A79FF7DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D42C5F-57CC-4C63-B584-20690E5A5897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{365D7103-A22F-43FB-9A0A-4627EBF1DD56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="282">
   <si>
     <t>Food Truck</t>
   </si>
@@ -673,9 +673,6 @@
     <t>Aktiviti Kewangan Dan Insurans/Takaful</t>
   </si>
   <si>
-    <t xml:space="preserve">Pusat Kecantikan Rawatan Aesthetic </t>
-  </si>
-  <si>
     <t>Perkhidmatan penyediaan kolam pancing</t>
   </si>
   <si>
@@ -822,9 +819,6 @@
   </si>
   <si>
     <t>Content Translator</t>
-  </si>
-  <si>
-    <t>Kelas Content Creator</t>
   </si>
   <si>
     <t xml:space="preserve">Perkhidmatan teknologi kitar semula </t>
@@ -921,9 +915,6 @@
   </si>
   <si>
     <t>ajar alquran, mengaji, kelas agama, kelas al-quran</t>
-  </si>
-  <si>
-    <t>Tiktoker</t>
   </si>
   <si>
     <r>
@@ -1126,6 +1117,52 @@
   </si>
   <si>
     <t>Menjual Pakaian Terpakai</t>
+  </si>
+  <si>
+    <t>Content Creator</t>
+  </si>
+  <si>
+    <t>Tiktoker</t>
+  </si>
+  <si>
+    <t>Pusat Kecantikan Rawatan Estetik</t>
+  </si>
+  <si>
+    <t>Online courses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Termasuk: 
+(a) latihan anggota penyelamat 
+(b) pendidikan membuat pakaian dan sulaman 
+(c) kelas peragaan
+(d) pengajaran kemahiran bahasa dan perbualan, bacaan pantas dan juga latihan pengucapan awam</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Kelas Influencer</t>
   </si>
 </sst>
 </file>
@@ -1827,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0063AF0-CCEC-4776-94ED-0FF29526F714}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1886,7 +1923,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="B3" s="4">
         <v>63990</v>
@@ -1895,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
@@ -1906,176 +1943,176 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>47991</v>
+        <v>63990</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>250</v>
+        <v>277</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63990</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>252</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>85493</v>
+        <v>47991</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>86909</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>96020</v>
+        <v>85493</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>93199</v>
+        <v>86909</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="B10" s="4">
-        <v>88902</v>
+        <v>96020</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B11" s="4">
-        <v>87300</v>
+        <v>93199</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>194</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B12" s="4">
-        <v>87300</v>
+        <v>88902</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>259</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -2084,18 +2121,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>195</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B13" s="4">
-        <v>87902</v>
+        <v>87300</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -2104,18 +2141,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B14" s="4">
-        <v>87909</v>
+        <v>87300</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>198</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -2124,58 +2161,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="4">
+        <v>87902</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="4">
+        <v>87909</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B17" s="6">
         <v>55103</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="6">
-        <v>47300</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="6">
-        <v>56309</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>261</v>
+      <c r="D17" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
@@ -2184,238 +2221,238 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="109.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6">
+        <v>47300</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6">
+        <v>56309</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="6">
         <v>85499</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="109.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="6">
+        <v>85499</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="199.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="6">
+        <v>74200</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6">
+        <v>96011</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="6">
+        <v>77101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="199.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="6">
-        <v>74200</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="6">
+        <v>47749</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="6">
-        <v>96011</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5">
+        <v>55200</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5">
+        <v>97000</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="6">
-        <v>77101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="5" t="s">
+    <row r="28" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5">
+        <v>97000</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="6">
-        <v>47749</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6">
+        <v>47111</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="5">
-        <v>55200</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="5">
-        <v>97000</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="5">
-        <v>97000</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="6">
-        <v>47111</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="6">
-        <v>47112</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="6">
-        <v>47113</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="6">
-        <v>47114</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
@@ -2424,18 +2461,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="6">
-        <v>47192</v>
+        <v>47112</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>59</v>
+        <v>267</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>27</v>
@@ -2446,16 +2483,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B31" s="6">
-        <v>47193</v>
+        <v>47113</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
@@ -2464,98 +2501,98 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="6">
+        <v>47114</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6">
+        <v>47192</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="6">
+        <v>47193</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B35" s="5">
         <v>10712</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D35" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B36" s="23">
         <v>46327</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C36" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="23">
-        <v>47230</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="23">
-        <v>88902</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="23">
-        <v>47743</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>118</v>
-      </c>
       <c r="D36" s="37" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>27</v>
@@ -2564,58 +2601,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="24">
-        <v>90004</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>147</v>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="23">
+        <v>47230</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="24">
-        <v>90004</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>147</v>
+        <v>200</v>
+      </c>
+      <c r="B38" s="23">
+        <v>88902</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B39" s="25">
-        <v>47749</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="B39" s="23">
+        <v>47743</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>118</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>27</v>
@@ -2624,69 +2661,69 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="24">
-        <v>59110</v>
+        <v>90004</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="B41" s="24">
-        <v>47735</v>
+        <v>90004</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="24">
-        <v>95221</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>121</v>
+        <v>275</v>
+      </c>
+      <c r="B42" s="25">
+        <v>47749</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="B43" s="24">
         <v>59110</v>
@@ -2695,7 +2732,7 @@
         <v>119</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
@@ -2704,238 +2741,238 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="24">
+        <v>47735</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="24">
+        <v>95221</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="24">
+        <v>59110</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B47" s="24">
         <v>86909</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C47" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D47" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="48" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="24">
+        <v>62021</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="24">
-        <v>62021</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B49" s="24">
         <v>96094</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C49" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="D49" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+    <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B50" s="24">
         <v>68109</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C50" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D50" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="24">
-        <v>96091</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="24">
-        <v>47912</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B50" s="24">
-        <v>59110</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="B51" s="24">
-        <v>97000</v>
+        <v>96091</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="24">
+        <v>47912</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="24">
+        <v>59110</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B55" s="24">
         <v>58110</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C55" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D55" s="39" t="s">
         <v>18</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B53" s="24">
-        <v>82301</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="24">
-        <v>52291</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B55" s="24">
-        <v>62010</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>221</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>25</v>
@@ -2944,18 +2981,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>222</v>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="B56" s="24">
-        <v>82192</v>
+        <v>82301</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>66</v>
@@ -2964,237 +3001,237 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="24">
+        <v>52291</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="24">
+        <v>62010</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="24">
+        <v>82192</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="24">
+        <v>63111</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="24">
-        <v>63111</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="37" t="s">
+      <c r="E60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="24">
+        <v>93293</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="24">
+        <v>96020</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="24">
-        <v>93293</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="24">
-        <v>96020</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="37" t="s">
+      <c r="E62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="24">
+      <c r="B63" s="24">
         <v>43223</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C63" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="24">
-        <v>95230</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B63" s="26">
-        <v>47721</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>135</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B64" s="26">
-        <v>86902</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>136</v>
+      <c r="A64" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="24">
+        <v>95230</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="27">
-        <v>39000</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>137</v>
+      <c r="A65" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="24">
-        <v>33120</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>176</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="26">
+        <v>47721</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="24">
-        <v>82990</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>178</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A67" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" s="26">
+        <v>86902</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B68" s="24">
-        <v>38309</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="27">
+        <v>39000</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3204,78 +3241,78 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
       <c r="B69" s="24">
+        <v>33120</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="24">
+        <v>82990</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="24">
+        <v>38309</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="24">
         <v>47711</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C72" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B70" s="24">
-        <v>30300</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A71" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="24">
-        <v>77301</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="24">
-        <v>47412</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="D72" s="41" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>27</v>
@@ -3284,418 +3321,418 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="21" t="s">
-        <v>159</v>
+    <row r="73" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="B73" s="24">
-        <v>85499</v>
+        <v>30300</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="D73" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="24">
+        <v>77301</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="24">
+        <v>47412</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B74" s="24">
+    <row r="77" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="24">
         <v>90001</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C77" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="D74" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B75" s="24">
-        <v>77293</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" s="24">
-        <v>62021</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B77" s="24">
-        <v>85499</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B78" s="24">
-        <v>74901</v>
+        <v>90001</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B79" s="24">
-        <v>97000</v>
+        <v>77293</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B80" s="24">
-        <v>97000</v>
+        <v>62021</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="B81" s="24">
-        <v>90004</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>147</v>
+        <v>85499</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>145</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="24">
+        <v>74901</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="24">
+        <v>90004</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="28">
+      <c r="B86" s="28">
         <v>79900</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C86" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D86" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B87" s="26">
         <v>90003</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C87" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D87" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
+    <row r="88" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B88" s="27">
         <v>93119</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C88" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="24">
-        <v>74200</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B86" s="24">
-        <v>93291</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="24">
-        <v>18110</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="24">
-        <v>47912</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="D88" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B89" s="24">
-        <v>27900</v>
+        <v>74200</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>117</v>
+        <v>183</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>184</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B90" s="24">
-        <v>38112</v>
+        <v>93291</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D90" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="18" t="s">
-        <v>211</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="B91" s="24">
-        <v>47735</v>
+        <v>18110</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="18" t="s">
-        <v>211</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="B92" s="24">
-        <v>85499</v>
+        <v>47912</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="24">
-        <v>23929</v>
+        <v>27900</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>18</v>
+        <v>151</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>117</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>70</v>
@@ -3706,161 +3743,241 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="B94" s="24">
-        <v>85499</v>
+        <v>38112</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D94" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="24">
+        <v>47735</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" s="24">
-        <v>86909</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="B97" s="24">
-        <v>85499</v>
+        <v>23929</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="B98" s="24">
-        <v>93293</v>
+        <v>85499</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="24">
+        <v>86909</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B102" s="24">
+        <v>93293</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="28">
         <v>47912</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C103" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D103" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B104" s="26">
         <v>66199</v>
       </c>
-      <c r="C100" s="32" t="s">
+      <c r="C104" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D100" s="37" t="s">
+      <c r="D104" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B101" s="26">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="26">
         <v>47219</v>
       </c>
-      <c r="C101" s="32" t="s">
+      <c r="C105" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D105" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3870,12 +3987,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4bf94dc-88b8-4deb-9b60-e79628638e83">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4090,20 +4209,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4bf94dc-88b8-4deb-9b60-e79628638e83">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
+    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
+    <ds:schemaRef ds:uri="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
+    <ds:schemaRef ds:uri="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4128,14 +4250,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
-    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
-    <ds:schemaRef ds:uri="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
-    <ds:schemaRef ds:uri="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/KAMUS MSIC.xlsx
+++ b/Excel/KAMUS MSIC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Downloads\BIZCODE1\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbatrisyia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D42C5F-57CC-4C63-B584-20690E5A5897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{365D7103-A22F-43FB-9A0A-4627EBF1DD56}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="283">
   <si>
     <t>Food Truck</t>
   </si>
@@ -1164,11 +1163,14 @@
   <si>
     <t>Kelas Influencer</t>
   </si>
+  <si>
+    <t>e-panggilan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1863,25 +1865,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0063AF0-CCEC-4776-94ED-0FF29526F714}">
-  <dimension ref="A1:F105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>276</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>277</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2021,118 +2023,118 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>85493</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>86909</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>96020</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>93199</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>88902</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="4">
-        <v>87300</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -2141,9 +2143,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>193</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B14" s="4">
         <v>87300</v>
@@ -2151,8 +2153,8 @@
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>256</v>
+      <c r="D14" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>33</v>
@@ -2161,18 +2163,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="4">
-        <v>87902</v>
+        <v>87300</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -2181,18 +2183,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="4">
-        <v>87909</v>
+        <v>87902</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -2201,89 +2203,89 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="4">
+        <v>87909</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B18" s="6">
         <v>55103</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:6" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B19" s="6">
         <v>47300</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B20" s="6">
         <v>56309</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:6" ht="111.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="B20" s="6">
-        <v>85499</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="109.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="B21" s="6">
         <v>85499</v>
@@ -2292,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>32</v>
@@ -2301,129 +2303,129 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="199.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="6">
+        <v>85499</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="207.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B23" s="6">
         <v>74200</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="6">
         <v>96011</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="6">
         <v>77101</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="6">
         <v>47749</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <v>55200</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="5">
-        <v>97000</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="B28" s="5">
         <v>97000</v>
@@ -2432,47 +2434,47 @@
         <v>81</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5">
+        <v>97000</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>47111</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="6">
-        <v>47112</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>27</v>
@@ -2481,18 +2483,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="6">
-        <v>47113</v>
+        <v>47112</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
@@ -2501,18 +2503,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="6">
-        <v>47114</v>
+        <v>47113</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>27</v>
@@ -2521,18 +2523,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="6">
-        <v>47192</v>
+        <v>47114</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
@@ -2541,18 +2543,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6">
-        <v>47193</v>
+        <v>47192</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>27</v>
@@ -2561,58 +2563,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6">
+        <v>47193</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="6">
         <v>10712</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B37" s="23">
         <v>46327</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C37" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D37" s="37" t="s">
         <v>269</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="23">
-        <v>47230</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>270</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>27</v>
@@ -2621,69 +2623,69 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="23">
+        <v>47230</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B39" s="23">
         <v>88902</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C39" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D39" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B40" s="23">
         <v>47743</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C40" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D40" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="24">
-        <v>90004</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="B41" s="24">
         <v>90004</v>
@@ -2701,729 +2703,729 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="24">
+        <v>90004</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B43" s="25">
         <v>47749</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C43" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D43" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B44" s="24">
         <v>59110</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C44" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D44" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B45" s="24">
         <v>47735</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C45" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D45" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B46" s="24">
         <v>95221</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C46" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D46" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B47" s="24">
         <v>59110</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C47" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D47" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B48" s="24">
         <v>86909</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C48" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D48" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+    <row r="49" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B49" s="24">
         <v>62021</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C49" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D49" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="24">
-        <v>96094</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="24">
+        <v>96094</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="24">
         <v>68109</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C51" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D51" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B52" s="24">
         <v>96091</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C52" s="30" t="s">
         <v>124</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="24">
-        <v>47912</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="24">
+        <v>47912</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B54" s="24">
         <v>59110</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C54" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D54" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B55" s="24">
         <v>97000</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C55" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="24">
-        <v>58110</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>126</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="24">
+        <v>58110</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B57" s="24">
         <v>82301</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C57" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="39" t="s">
+      <c r="D57" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B58" s="24">
         <v>52291</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C58" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D58" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+    <row r="59" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B59" s="24">
         <v>62010</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C59" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D59" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B60" s="24">
         <v>82192</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C60" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D60" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B61" s="24">
         <v>63111</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C61" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D61" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B62" s="24">
         <v>93293</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C62" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D62" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B63" s="24">
         <v>96020</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C63" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="D63" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B64" s="24">
         <v>43223</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C64" s="30" t="s">
         <v>132</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="24">
-        <v>95230</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>133</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>134</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="24">
+        <v>95230</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B66" s="26">
-        <v>47721</v>
+        <v>226</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" s="26">
-        <v>86902</v>
+        <v>47721</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="27">
-        <v>39000</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>137</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="26">
+        <v>86902</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="27">
+        <v>39000</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B70" s="24">
         <v>33120</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C70" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D70" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+    <row r="71" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B71" s="24">
         <v>82990</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C71" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D71" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B72" s="24">
         <v>38309</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C72" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D72" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B73" s="24">
         <v>47711</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C73" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D73" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
+    <row r="74" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B74" s="24">
         <v>30300</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C74" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A74" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="24">
-        <v>77301</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>141</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B75" s="24">
-        <v>47412</v>
+        <v>77301</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D75" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
-        <v>159</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="B76" s="24">
-        <v>85499</v>
+        <v>47412</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
+    <row r="78" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="B77" s="24">
-        <v>90001</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="B78" s="24">
         <v>90001</v>
@@ -3441,109 +3443,109 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="24">
+        <v>90001</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B80" s="24">
         <v>77293</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D80" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+    <row r="81" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B80" s="24">
+      <c r="B81" s="24">
         <v>62021</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C81" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B81" s="24">
-        <v>85499</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>145</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="B82" s="24">
-        <v>74901</v>
+        <v>85499</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" s="24">
+        <v>74901</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="B83" s="24">
-        <v>97000</v>
-      </c>
-      <c r="C83" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="B84" s="24">
         <v>97000</v>
@@ -3561,75 +3563,75 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="24">
+        <v>97000</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="24">
+      <c r="B86" s="24">
         <v>90004</v>
       </c>
-      <c r="C85" s="34" t="s">
+      <c r="C86" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D85" s="41" t="s">
+      <c r="D86" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+    <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="28">
+      <c r="B87" s="28">
         <v>79900</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C87" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D87" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B88" s="26">
         <v>90003</v>
       </c>
-      <c r="C87" s="32" t="s">
+      <c r="C88" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="27">
-        <v>93119</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>149</v>
       </c>
       <c r="D88" s="41" t="s">
         <v>18</v>
@@ -3641,238 +3643,238 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="27">
+        <v>93119</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="24">
+      <c r="B90" s="24">
         <v>74200</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C90" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="41" t="s">
+      <c r="D90" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B91" s="24">
         <v>93291</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C91" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D91" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
+    <row r="92" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="24">
+      <c r="B92" s="24">
         <v>18110</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C92" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="41" t="s">
+      <c r="D92" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
+    <row r="93" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B93" s="24">
         <v>47912</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C93" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="41" t="s">
+      <c r="D93" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="37.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
+    <row r="94" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B94" s="24">
         <v>27900</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C94" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D94" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B95" s="24">
         <v>38112</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C95" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" s="24">
-        <v>47735</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="D95" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>210</v>
       </c>
       <c r="B96" s="24">
-        <v>85499</v>
+        <v>47735</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D96" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
-        <v>109</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="B97" s="24">
-        <v>23929</v>
+        <v>85499</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" s="24">
-        <v>85499</v>
+        <v>23929</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="D98" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="24">
+      <c r="B100" s="24">
         <v>86909</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C100" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D99" s="41" t="s">
+      <c r="D100" s="41" t="s">
         <v>111</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>112</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>33</v>
@@ -3881,103 +3883,123 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="24">
-        <v>85499</v>
+      <c r="B101" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>112</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="24">
+        <v>85499</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B103" s="24">
         <v>93293</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C103" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D102" s="41" t="s">
+      <c r="D103" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="28">
+      <c r="B104" s="28">
         <v>47912</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C104" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D103" s="41" t="s">
+      <c r="D104" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="17" t="s">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="26">
+      <c r="B105" s="26">
         <v>66199</v>
       </c>
-      <c r="C104" s="32" t="s">
+      <c r="C105" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D104" s="37" t="s">
+      <c r="D105" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="26">
+      <c r="B106" s="26">
         <v>47219</v>
       </c>
-      <c r="C105" s="32" t="s">
+      <c r="C106" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D106" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3987,14 +4009,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4bf94dc-88b8-4deb-9b60-e79628638e83">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4209,23 +4229,30 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4bf94dc-88b8-4deb-9b60-e79628638e83">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSI5YjgyNjc0NS0yZjg2LTRjYzItODMyMS0wY2YyODA0OThjZjYiIG9yaWdpbj0idXNlclNlbGVjdGVkIiAvPjxVc2VyTmFtZT5TU01cc2JhdHJpc3lpYTwvVXNlck5hbWU+PERhdGVUaW1lPjE0LzIvMjAyNCA2OjQxOjQ1IEFNPC9EYXRlVGltZT48TGFiZWxTdHJpbmc+Tm8gTWFya2luZzwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="9b826745-2f86-4cc2-8321-0cf280498cf6" origin="userSelected"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
-    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
-    <ds:schemaRef ds:uri="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
-    <ds:schemaRef ds:uri="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4250,9 +4277,32 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f03e5a4f-bc1b-4812-a1f6-dab06b8ca412"/>
+    <ds:schemaRef ds:uri="7401d785-da5b-4d86-90d4-61060688b303"/>
+    <ds:schemaRef ds:uri="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
+    <ds:schemaRef ds:uri="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0713E970-5070-4233-A206-52DC81395439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE6201B-85D0-40A0-9827-60445F4D87EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Excel/KAMUS MSIC.xlsx
+++ b/Excel/KAMUS MSIC.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="291">
   <si>
     <t>Food Truck</t>
   </si>
@@ -1166,12 +1166,36 @@
   <si>
     <t>e-panggilan</t>
   </si>
+  <si>
+    <t>Pusat panggilan</t>
+  </si>
+  <si>
+    <t>82200</t>
+  </si>
+  <si>
+    <t>P-panggilan</t>
+  </si>
+  <si>
+    <t>53200</t>
+  </si>
+  <si>
+    <t>Aktiviti pusat panggilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aktiviti kurier selain daripada aktiviti pos nasional</t>
+  </si>
+  <si>
+    <t>pengambilan, pengangkutan dan penghantaran berbentuk mel, dan kebiasaannya kecil, bungkusan dan paket. Satu atau lebih mod pengangkutan mungkin terlibat dan aktiviti dilaksanakan sama ada pengangkutan sendiri atau melalui pengangkutan awam</t>
+  </si>
+  <si>
+    <t>Pengangkutan dan penyimpanan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,16 +1265,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1425,11 +1467,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1552,6 +1609,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1866,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,7 +4044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>204</v>
       </c>
@@ -4003,21 +4064,53 @@
         <v>28</v>
       </c>
     </row>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E588CE95CF9584499B39070CC3A29848" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe4fdf15d597c960c808db39a87c5643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4bf94dc-88b8-4deb-9b60-e79628638e83" xmlns:ns3="9ace2b6e-1c7a-4ea8-8124-4116f6d76e88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bc15215275f513fea227201a0f67871" ns2:_="" ns3:_="">
     <xsd:import namespace="d4bf94dc-88b8-4deb-9b60-e79628638e83"/>
@@ -4228,7 +4321,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSI5YjgyNjc0NS0yZjg2LTRjYzItODMyMS0wY2YyODA0OThjZjYiIG9yaWdpbj0idXNlclNlbGVjdGVkIiAvPjxVc2VyTmFtZT5TU01cc2JhdHJpc3lpYTwvVXNlck5hbWU+PERhdGVUaW1lPjE0LzIvMjAyNCA2OjQxOjQ1IEFNPC9EYXRlVGltZT48TGFiZWxTdHJpbmc+Tm8gTWFya2luZzwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d4bf94dc-88b8-4deb-9b60-e79628638e83">
@@ -4239,25 +4347,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<WrappedLabelHistory xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
-  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSI5YjgyNjc0NS0yZjg2LTRjYzItODMyMS0wY2YyODA0OThjZjYiIG9yaWdpbj0idXNlclNlbGVjdGVkIiAvPjxVc2VyTmFtZT5TU01cc2JhdHJpc3lpYTwvVXNlck5hbWU+PERhdGVUaW1lPjE0LzIvMjAyNCA2OjQxOjQ1IEFNPC9EYXRlVGltZT48TGFiZWxTdHJpbmc+Tm8gTWFya2luZzwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
-</WrappedLabelHistory>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="9b826745-2f86-4cc2-8321-0cf280498cf6" origin="userSelected"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE86DF2-2578-4901-A010-B89B975235C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4276,7 +4370,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45601-325D-415B-817C-B8D8FDEBC910}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0713E970-5070-4233-A206-52DC81395439}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26408471-392A-412E-8BB8-390CEA553B14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4289,17 +4400,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0713E970-5070-4233-A206-52DC81395439}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EE6201B-85D0-40A0-9827-60445F4D87EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11880AA-7B52-47C4-8714-820F6EEE8122}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
